--- a/explanation2.xlsx
+++ b/explanation2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifuunivai-my.sharepoint.com/personal/mibuki_takagi_ai_info_gifu-u_ac_jp/Documents/explanation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE0A836-0814-4F7C-B6FC-125FFFEBEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{3BE0A836-0814-4F7C-B6FC-125FFFEBEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A422AB9C-BBD9-4AD1-B6DD-A117A142E31A}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{6511738B-F992-40D5-9DB8-4F9F2F9FB648}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="581">
   <si>
     <t>衝突状態</t>
   </si>
@@ -83,390 +83,18 @@
     <t>加速</t>
   </si>
   <si>
-    <t>最終的な目的地に到達するために、停止していた車を動かす必要がありました。加速を選び、車両を前進させ、目的地へ向かう流れをつくりました。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者のいない状況でした。加速を選択し、多くの場合は走り出し、先へ進みました。わずかな衝突の可能性がありましたが、走行へ移行しました。</t>
-  </si>
-  <si>
-    <t>低い価値に対して落ち着かない気持ちでしたが、行動後に大きく持ち直し、安堵が生まれました。この先の高い価値への期待が高まりました。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者のいない状況でした。加速により多くの場合は走り出し、先へ進みました。目的地到達には動き始めることが不可欠でした。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者がいない状況から加速し、多くの場合は走り出しました。低い価値から改善され、前向きな気持ちが高まりました。</t>
-  </si>
-  <si>
-    <t>目的地に着くには前進が必要でした。停止から動き始め、目的地への道筋を築きました。低く感じていた価値が高まり、安心感が生まれました。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者のいない状況から加速し、多くの場合は走り出しました。目的地を目指し動き始め、低かった価値が持ち直し、安心感が深まりました。</t>
-  </si>
-  <si>
-    <t>最終目的地に到達するため、前回の加速を続けました。他の行動を選んでいたら、目的地への進行が滞り、到着が遅れる可能性がありました。</t>
-  </si>
-  <si>
-    <t>前の流れを続けたことで、期待が保たれ、落ち着きを感じました。別の手段に変えていたら、不安や失望感がより大きく膨らんでいたかもしれません。</t>
-  </si>
-  <si>
-    <t>加速を継続し、停止から走行へ移る流れが安定しました。目的地へ進むには動き続ける必要があり、他の行動では到着が遅れる恐れがありました。</t>
-  </si>
-  <si>
-    <t>引き続き加速することで、停止状態からの移行が維持されました。継続による安堵が続き、行動を変えたら後悔や不安が高まるかもしれません。</t>
-  </si>
-  <si>
-    <t>目的地へ向かうには、前の加速を保って前進する必要がありました。期待が続き、安心感を得られましたが、別の選択をしたら落胆が大きくなったでしょう。</t>
-  </si>
-  <si>
-    <t>加速を継続し、停止から走行への移行が途切れず、目的地へ進む工程を保ちました。落ち着きが続き、行動を変えたら到着が遅れ、気持ちが乱れたかもしれません。</t>
-  </si>
-  <si>
     <t>減速</t>
   </si>
   <si>
-    <t>目的地に近づくには、減速を続けるより加速へ切り替える必要がありました。変えなかった場合、目的地への到達はさらに遠のいていました。</t>
-  </si>
-  <si>
-    <t>減速を続けていたら、停滞感やもどかしさが増す恐れがありました。加速に切り替えたとき、先へ進める安心感が芽生えました。</t>
-  </si>
-  <si>
-    <t>減速から加速へ切り替えたことで、停止状態から抜け出す遷移が生じました。目的地へ近づくには加速が妥当と判断し、到達を優先しました。</t>
-  </si>
-  <si>
-    <t>前回の減速を続けると、なお停止にとどまりやすかったため、加速へ変更しました。実際に動き出せたことで、行き詰まり感が和らぎ、心持ちが前向きになりました。</t>
-  </si>
-  <si>
-    <t>目的地に着くには減速から加速へ転じる必要がありました。停滞から解放され、気分が上向きになりましたが、続けていたら到着が遅れ、焦りが募ったでしょう。</t>
-  </si>
-  <si>
-    <t>前回の減速をやめ、加速へ切り替えたことで停止状態を抜けやすくし、目的地への道筋を整えました。停滞感が薄れ、期待や落ち着きを得られました。</t>
-  </si>
-  <si>
     <t>車線変更</t>
   </si>
   <si>
-    <t>目的地へ向かうため、車線変更を継続するより加速に切り替える必要がありました。変えなかった場合、到着がさらに遅れる展開になりました。</t>
-  </si>
-  <si>
-    <t>抑え込んでいた気持ちを続けていたら、落ち着かない感覚が募っていたかもしれません。切り替えたことで期待が高まり、先へ進む希望がはっきりと生まれました。</t>
-  </si>
-  <si>
-    <t>前回は車線変更でしたが、加速へ移行することで停止状態を抜けやすくなりました。目的地へ向かうには加速が適しており、到着へ向けた流れを整えました。</t>
-  </si>
-  <si>
-    <t>車線変更を続けると停止状態が長引きそうだったため、加速へ切り替えました。停滞から抜け出せたという安堵が生まれ、少し前向きな気持ちに変わりました。</t>
-  </si>
-  <si>
-    <t>目的地に近づくには、前の車線変更より加速へ動く必要がありました。切り替えた瞬間に進展への実感がわき、安心感が広がりましたが、続けていたら焦りが増したでしょう。</t>
-  </si>
-  <si>
-    <t>前回は車線変更でしたが、今回加速にすることで停止状態を脱しやすくなり、目的地への道筋を確保しました。停滞感がほぐれて期待や安堵が高まり、前進への意欲が芽生えました。</t>
-  </si>
-  <si>
     <t>何もしない</t>
   </si>
   <si>
-    <t>目的地へ向かうには、前の何もしないを続けるより加速へ切り替える必要がありました。変えなかった場合、到着がさらに遅れる可能性が高まっていました。</t>
-  </si>
-  <si>
-    <t>もし何もしないを継続していたら、停滞感や落ち込みが増す恐れがありました。加速を選び直したことで、期待や安心が湧いたと感じました。</t>
-  </si>
-  <si>
-    <t>停止から加速へ切り替えると走行への移行が進みました。到達を目指すには何もしないを続けるより行動変更が欠かせず、そのままでは遅れが増していました。</t>
-  </si>
-  <si>
-    <t>停止から加速へ移行すると走行状態に変わる可能性が高まりました。何もしないを続けたら閉塞感が募ると感じ、行動転換が生む安堵に気付きました。</t>
-  </si>
-  <si>
-    <t>目的地へ向かうため、前の何もしないを続ける代わりに加速を選びました。切り替えで停滞から解放された実感が強まり、続けていたら不安や落胆が深まっていたでしょう。</t>
-  </si>
-  <si>
-    <t>停止中から加速へ移ることで走行状態へ移りやすくなり、目的地へ進む手段を整えました。何もしないを続けたら気持ちが沈みがちで、切り替えに期待が高まったと感じました。</t>
-  </si>
-  <si>
-    <t>最終的な目的地に到達するために加速して動き始めましたが、この行動で想定外の衝突が起こり、当初の到達目標は達成できませんでした。</t>
-  </si>
-  <si>
-    <t>停止していて歩行者もいない状態から加速を行ったところ、一部の展開で衝突へ至りました。結果として車両はその段階で衝突状態になり、走行を続けられなくなりました。</t>
-  </si>
-  <si>
-    <t>加速を始めた際には高まる期待がありましたが、突如として衝突が起きたことで大きな失望や動揺が生まれました。先へ進めるはずだった思いが一瞬で崩れ去りました。</t>
-  </si>
-  <si>
-    <t>停止中の状態から加速すると、通常は走行へ移行する流れでしたが、ごく一部の経路で衝突に至りました。本来は目的地へ進むはずだった計画が途中で途切れてしまいました。</t>
-  </si>
-  <si>
-    <t>停止から加速を行った際、まれに起こり得る衝突状態が生じました。車両が進むと想定していた分、予想外の事態に強い動揺や落胆を感じて気持ちが大きく乱れました。</t>
-  </si>
-  <si>
-    <t>目的地へ近づくために加速で動き始めましたが、衝突が生じて計画が遮断されました。期待していた進展が壊れたことで、落胆や戸惑いが一気に募りました。</t>
-  </si>
-  <si>
-    <t>停止状態から加速を行う過程で、わずかな可能性により衝突が発生し、車両はその場で止まりました。目的地へ向けて動き始める意図がありましたが、計画が崩れ去り、大きな失望と動揺が押し寄せました。</t>
-  </si>
-  <si>
-    <t>本来は最終目的地に到達するため、前回の加速を継続していましたが、衝突が発生しました。別の行動に変えていれば、衝突は避けられた可能性があります。</t>
-  </si>
-  <si>
-    <t>前回からの加速継続で前向きな期待がありましたが、衝突により大きな落胆を感じました。行動を変えていれば、この衝撃は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>加速の継続により通常なら走行状態へ移行するはずでしたが、衝突が発生しました。別の行動を選んでいれば、目的地への別ルートがあったかもしれません。</t>
-  </si>
-  <si>
-    <t>加速継続の結果、衝突して走行不能になりました。強い後悔を感じましたが、行動を変えていれば、この失望は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>目的地到達のため加速を続けましたが、予期せぬ衝突で計画が頓挫しました。行動変更していれば、この落胆は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>加速継続により本来は順調な走行と目的地到達が見込まれましたが、衝突により中断されました。別の選択をしていれば、この結果と失望は違っていたかもしれません。</t>
-  </si>
-  <si>
-    <t>減速から加速への変更後に衝突が発生しました。減速を継続していれば、目的地到達は遅れたものの、衝突は回避できた可能性がありました。</t>
-  </si>
-  <si>
-    <t>減速から加速への切り替えで期待が高まりましたが、衝突で一転して失望を感じました。継続していれば、この落胆は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>減速からの加速で走行開始を試みましたが衝突しました。減速継続であれば、遅いながらも目的地への進行は可能でした。</t>
-  </si>
-  <si>
-    <t>減速から加速への変更で衝突が発生し、大きな動揺を感じました。継続していれば、この衝撃は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>目的地到達のため減速から加速へ切り替えましたが、衝突により頓挫しました。継続していれば、この失望は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>減速から加速への切り替えで目的地を目指しましたが、衝突で計画が崩れました。継続選択であれば、この結果と失望は異なっていたかもしれません。</t>
-  </si>
-  <si>
-    <t>車線変更から加速への変更後に衝突しました。継続していれば、目的地到達は遅れても衝突は避けられた可能性がありました。</t>
-  </si>
-  <si>
-    <t>車線変更から加速への切り替えで期待しましたが、衝突で大きく落胆しました。継続していれば、この衝撃は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>車線変更からの加速で前進を試みましたが衝突しました。継続していれば、遅いながらも目的地へ向かえた可能性がありました。</t>
-  </si>
-  <si>
-    <t>車線変更から加速への変更で衝突し、強い動揺を感じました。継続していれば、この失望は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>目的地到達のため車線変更から加速へ切り替えましたが、衝突で断念しました。継続していれば、この落胆は違っていたかもしれません。</t>
-  </si>
-  <si>
-    <t>車線変更から加速への切り替えで目的地を目指しましたが、衝突で中断されました。継続であれば、この結果と失望感は異なっていたかもしれません。</t>
-  </si>
-  <si>
-    <t>何もしない状態から加速への変更後に衝突しました。継続していれば、目的地到達は遅れたものの衝突は避けられた可能性がありました。</t>
-  </si>
-  <si>
-    <t>何もしない状態から加速へ切り替えで期待しましたが、衝突により大きく落胆しました。継続していれば、この衝撃は少なかったかもしれません。</t>
-  </si>
-  <si>
-    <t>何もしない状態から加速で前進を試みましたが衝突しました。継続していれば、遅いながらも目的地への進行は可能でした。</t>
-  </si>
-  <si>
-    <t>何もしない状態から加速への変更で衝突し、強い動揺を感じました。継続していれば、この失望は避けられたかもしれません。</t>
-  </si>
-  <si>
-    <t>目的地到達のため何もしない状態から加速へ切り替えましたが、衝突により頓挫しました。継続していれば、この落胆は違っていたかもしれません。</t>
-  </si>
-  <si>
-    <t>何もしない状態から加速への切り替えで目的地を目指しましたが、衝突で計画が崩れました。継続選択であれば、この結果と失望は異なっていたかもしれません。</t>
-  </si>
-  <si>
     <t>歩行者あり</t>
   </si>
   <si>
-    <t>最終的な目的地到達のため何もしない選択を取りました。これにより目的地への道筋を保ちやすくなり 次の機会を待つ形となり ゴールに向けた方針を続けました。</t>
-  </si>
-  <si>
-    <t>停止中で前方に歩行者がいる状態で何もしない行動を選択すると 停止を維持する可能性が高く まれに状態が変化することもあり 結果的に停止が継続されました。</t>
-  </si>
-  <si>
-    <t>重い心配を抱えていましたが行動後には安堵が生まれました。不安は残りつつも気持ちが落ち着き 次の展開を待てる余裕ができ 少しだけ安心感が得られました。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者がいる状態で何もしない選択により停止を継続しました。目的地到達のため 無理に動かず次の機会を待つことが有効と判断し 状況変化を見計らいました。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者がいる状態で何もしない選択をし 停止を維持しながら状態変化の可能性も残りました。行動後は緊張感が和らぎ 冷静に次の展開を見守れる気持ちになりました。</t>
-  </si>
-  <si>
-    <t>目的地到達のため動きを控える選択をし すぐには進めませんが焦りが薄れました。不安は大きかったものの 状況変化への期待が生まれ 心の負担が軽くなりました。</t>
-  </si>
-  <si>
-    <t>停止中で歩行者がいる状態で何もしない選択をし 停止継続と状態変化の可能性を保ちました。目的地到達のため機会を待つ方法を選び 不安が和らぎ期待が生まれました。</t>
-  </si>
-  <si>
-    <t>前回の加速を継続していた場合 設定された目的に沿う結果が得られにくいと判断され 目的達成のため行動変更を行い 何もしない選択にいたりました。</t>
-  </si>
-  <si>
-    <t>もし加速を続けていたならば 以前の状態と比較して心情面で強い不満が現れていたと考えられました。今回 何もしない行動に変更した結果 実際には安心感を得ることができました。</t>
-  </si>
-  <si>
-    <t>前回は加速を実施されましたが 継続する行動では目的達成が困難と評価されたため システムは客観的な評価に基づき 何もしない選択へ行動変更いたしました。</t>
-  </si>
-  <si>
-    <t>前回は加速を行われましたが 客観的な判断により『何もしない』を選択されました。もし加速を継続していたなら 心情面で非常に不満が現れたと推察され 変更によりより落ち着いた感覚が得られました。</t>
-  </si>
-  <si>
-    <t>前回は加速が行われましたが 継続した場合には目的に沿った結果が得られにくいと判断され 行動変更がなされました。また 結果として心情面において大いに安堵感がもたらされたと感じられました。</t>
-  </si>
-  <si>
-    <t>前回の加速後に評価された結果に基づき 目的達成のため 現在は『何もしない』行動が選択されました。この選択により心情面での安心感が増し 目標到達に向けた行動を実行しました。</t>
-  </si>
-  <si>
-    <t>前回の減速を継続していた場合 最終目的に沿う結果とはならなかったと評価されたため 目的達成のため行動を変更し『何もしない』選択となりました。</t>
-  </si>
-  <si>
-    <t>もし減速を続けていたなら 結果として心情面に大きな重みが生じ 苦悩が深まったと考えられます。今回の行動変更により 実際には穏やかな安心感が得られたと感じられました。</t>
-  </si>
-  <si>
-    <t>前回は減速を実施されましたが システムは客観的検討の結果 減速継続では目的達成に適さないと判断し『何もしない』選択へ行動変更いたしました。</t>
-  </si>
-  <si>
-    <t>前回の減速実施後 システムは客観的検討により『何もしない』を選択されました。もし減速を継続していたなら 心情面で非常に不満が現れたと推察され 変更によりより落ち着いた感覚が得られました。</t>
-  </si>
-  <si>
-    <t>減速を継続していた場合 目的達成の道筋として十分でなかったと評価され 行動を『何もしない』に変更いたしました。その結果 継続時に感じられたであろう不安が和らぎ 心情面に穏やかさがもたらされました。</t>
-  </si>
-  <si>
-    <t>減速から目的達成のために『何もしない』選択へ行動変更され システムは客観的な判断に基づき遷移しました。その結果 予想された不満を回避し 穏やかな安心感が得られました。</t>
-  </si>
-  <si>
-    <t>もし車線変更を継続していたなら 設定された目的に沿う結果は得られにくいと評価され 目的達成を念頭に『何もしない』に変更された結果 より適切な状況が実現されました。</t>
-  </si>
-  <si>
-    <t>もし車線変更を続けていたなら 心情面では著しく大きな不満が生じたと考えられます。今回『何もしない』選択により 実際には心情面での安心感が得られたと感じられました。</t>
-  </si>
-  <si>
-    <t>前行動は車線変更でございましたが システムは客観的検討の結果 車線変更を継続するより目的達成に寄与する『何もしない』を選択いたしました。その結果 より適切な運行状況が実現されました。</t>
-  </si>
-  <si>
-    <t>車線変更から客観的判断により『何もしない』が選択されました。車線変更継続では心情面で著しい不満が予想されましたが 今回の選択により安定した安心感が得られました。</t>
-  </si>
-  <si>
-    <t>車線変更を続けた場合 目的達成が困難と評価され 行動変更して『何もしない』を選ばれました。もし継続していたなら 心情面で大きな不満が生じたと判断され 実際は安心感が得られる結果となりました。</t>
-  </si>
-  <si>
-    <t>目的達成のため車線変更から『何もしない』への変更が客観的に選択されました。継続時に予想された不満は回避され システムの状態と心理面での安定が得られました。</t>
-  </si>
-  <si>
-    <t>もし『何もしない』行動を継続せず 別の行動を選択していた場合 目的地への到達がより困難になる可能性がありました。そのため 目的達成の観点から 行動を継続する選択がなされました。</t>
-  </si>
-  <si>
-    <t>もし別の行動を選択していたなら 不安や落ち着かない気持ちが強まっていたかもしれません。今回 行動を継続したことで 状況が安定し 安心感が得られたように感じました。</t>
-  </si>
-  <si>
-    <t>前回は『何もしない』行動を実施されましたが 目的達成の観点からも別の行動よりも適切と判断され 今回も『何もしない』行動を継続いたしました。</t>
-  </si>
-  <si>
-    <t>前回に引き続き『何もしない』行動を選択いたしました。もし他の行動を取っていたら 不安が強まった可能性がありましたが 継続したことで安心感が得られたように感じられました。</t>
-  </si>
-  <si>
-    <t>別の行動を選択していた場合 目的地への到達が遠のく可能性がありました。今回 行動を継続したことで その心配がなくなり 落ち着いて状況を見守ることができました。</t>
-  </si>
-  <si>
-    <t>システムは目的達成の観点から 前回に続き『何もしない』行動を選択しました。別の行動では不安が増していたかもしれませんが 行動を継続したことで安心して状況を見守ることができました。</t>
-  </si>
-  <si>
-    <t>目的地への到達を目指す運行手順に基づいて行動が選択されましたが その後の状態遷移過程で予期しない衝突状態に変化するに至りました。経路の流れとしては 通常の進行から外れた結果として捉えられます。</t>
-  </si>
-  <si>
-    <t>停止中で前方に歩行者がいる状態で何もしない行動を実行し 通常の状態遷移プロセスに従って変化する過程で 予期せぬ状態となり衝突に至りました。</t>
-  </si>
-  <si>
-    <t>行動を選択したときは 次に進む期待が抱かれていましたが 実際の結果は予想外であり その後 気持ちに大きな動揺と失望が現れる形となりました。状況の変化により 当初の心持ちが大きく変化したのが感じられました。</t>
-  </si>
-  <si>
-    <t>停止状態で歩行者がいる環境下で何もしない行動を実施し システムは状態遷移を進めました。しかし計画された進路から外れ 予期せぬ衝突状態となりました。</t>
-  </si>
-  <si>
-    <t>停止状態で歩行者がいる状況下で何もしない行動を実行し システムは通常の状態遷移プロセスに従いながら 次第に予想外の状態へと変化しました。その結果 動作の連続性として衝突状態へ移った際 当初抱いていた期待が一変し 心情に大きな揺れを感じる状況となりました。</t>
-  </si>
-  <si>
-    <t>目的地到達を志向する運行手順に沿って行動が選ばれた結果 計画された流れとは異なる経路で状態が遷移し 予期しない衝突状態に至りました。その過程では 行動前に抱かれていた先行きへの希望が 結果として大きく変動する感情に結びついたことが示されました。</t>
-  </si>
-  <si>
-    <t>当初 停止状態で歩行者がいる環境下で何もしない行動を採用し システムは決められた状態遷移のプロセスを経ました。しかしながら その遷移過程の中で 計画していた経路から外れる状態に変化し 予期しない衝突に至りました。この経緯は 運行手順としての流れと 行動の結果として抱かれていた期待の大きな変動とを示すものとなりました。</t>
-  </si>
-  <si>
-    <t>目的地への到達を意図して加速から行動変更を行いましたが その選択の結果として予期しない衝突状態に至り 目標からの逸脱が生じました。</t>
-  </si>
-  <si>
-    <t>加速を続けていた場合 心情面で強い後悔や不安が生じる可能性が高いと予想されました。行動を変更したことで気持ちが落ち着き 心の安定を保つ決定を下しました。</t>
-  </si>
-  <si>
-    <t>前回加速後 衝突という結果に至る前に行動変更が検討されました。これにより 目的地に進む際の障害を最小化するため 別の行動への修正が実施されました。</t>
-  </si>
-  <si>
-    <t>加速後 最終的に衝突が発生する前に行動変更が行われました。もし留まったままだった場合 無力感や不安が強まることが考えられ 心情的に穏やかさを保つために 変更を決定しました。</t>
-  </si>
-  <si>
-    <t>加速後 衝突を回避するために行動変更を行いました。この変更により 目的に沿った結果を維持することと 心情面で安心感を得る両方が得られる形となりました。</t>
-  </si>
-  <si>
-    <t>加速を選択後 衝突に繋がる危険が見込まれるため速やかに行動変更が実行されました。したがって 目的達成の観点からの修正と 心情的に落ち着きの追求が両立した結果として この選択がなされました。</t>
-  </si>
-  <si>
-    <t>別の行動を選択していた場合 目的地への到達が遠のく可能性がありました。今回 行動変更を決定しましたが 結果として予期せぬ衝突が発生いたしました。</t>
-  </si>
-  <si>
-    <t>もし減速を続けていたなら 心情面で大きな不満が生じていたかもしれません。行動を変更したことで一時的な安堵を感じましたが 衝突という結果に終わり 大きな失望を感じました。</t>
-  </si>
-  <si>
-    <t>前回は減速を実施され 継続した場合にあるべき結果とはならないと判断され 目的達成を念頭に『何もしない』に変更された結果 実際に予期しない衝突が発生いたしました。</t>
-  </si>
-  <si>
-    <t>前回の減速後 システムは客観的判断により『何もしない』を選択しました。しかし予期せぬ衝突が発生し 当初期待された安心感とは異なる結果となりました。</t>
-  </si>
-  <si>
-    <t>減速継続では目的達成が困難と判断され 行動変更を選択しました。変更後の安定が期待されましたが 衝突という予期せぬ事態により 大きな落胆を感じることとなりました。</t>
-  </si>
-  <si>
-    <t>前回の減速後 システムは目的達成のため『何もしない』に変更しました。安定した進行が期待されましたが 予期せぬ衝突により 期待とは異なる結果となりました。</t>
-  </si>
-  <si>
-    <t>前回の車線変更を継続していた場合 目的達成にはつながらないと判断され 行動を『何もしない』に変更いたしました。しかし 結果的に予期せぬ衝突が発生いたしました。</t>
-  </si>
-  <si>
-    <t>もし車線変更を続けていたなら 心情面では著しく大きな不安が生じた可能性がありました。行動変更により一時的な安心感を得ましたが 衝突という結果に終わり 深い失望を感じました。</t>
-  </si>
-  <si>
-    <t>前行動の車線変更から より目的に適う『何もしない』へ変更されましたが 予期せぬ衝突という結果に至りました。</t>
-  </si>
-  <si>
-    <t>前行動の車線変更から『何もしない』への変更により 一時的な安心感が得られましたが その後の衝突により 予期せぬ結果となりました。</t>
-  </si>
-  <si>
-    <t>車線変更継続では目的達成が困難と評価され 行動変更を選択しました。一時的な安堵感は得られましたが 衝突という予期せぬ事態により 大きな落胆を感じることとなりました。</t>
-  </si>
-  <si>
-    <t>前回の車線変更から 目的達成を考慮して『何もしない』に変更しましたが 予期せぬ衝突が発生し 期待された結果は得られませんでした。</t>
-  </si>
-  <si>
-    <t>別の行動を選択していた場合 目的達成が難しくなると判断され『何もしない』行動を継続いたしましたが 結果的に衝突が発生いたしました。</t>
-  </si>
-  <si>
-    <t>行動継続により安定した状態が期待されましたが 予期せぬ衝突が発生し 大きな動揺を感じることとなりました。</t>
-  </si>
-  <si>
-    <t>システムは目的達成の観点から行動継続が適切と判断いたしましたが 予期せぬ衝突という結果に至りました。</t>
-  </si>
-  <si>
-    <t>行動継続により安定した状態が期待されましたが 予期せぬ衝突により 当初の期待とは異なる結果となりました。</t>
-  </si>
-  <si>
-    <t>目的達成のために行動継続を選択しましたが 予期せぬ衝突により 期待していた安定感は得られませんでした。</t>
-  </si>
-  <si>
-    <t>前回の行動を継続することで目的達成と安定が期待されましたが 予期せぬ衝突により 期待された結果は得られませんでした。</t>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -476,13 +104,6 @@
   </si>
   <si>
     <t>s0</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>頻度</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンド</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -586,172 +207,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>頻度(衝突シナリオ) 全説明数26224</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ゼンセツメイスウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>4848 (0.193881)</t>
-  </si>
-  <si>
-    <t>111 (0.004439)</t>
-  </si>
-  <si>
-    <t>91 (0.003639)</t>
-  </si>
-  <si>
-    <t>2135 (0.085383)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>521 (0.020836)</t>
-  </si>
-  <si>
-    <t>1407 (0.056269)</t>
-  </si>
-  <si>
-    <t>486 (0.019436)</t>
-  </si>
-  <si>
-    <t>158 (0.006319)</t>
-  </si>
-  <si>
-    <t>141 (0.005639)</t>
-  </si>
-  <si>
-    <t>3469 (0.138732)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>676 (0.027035)</t>
-  </si>
-  <si>
-    <t>1036 (0.041432)</t>
-  </si>
-  <si>
-    <t>56 (0.002240)</t>
-  </si>
-  <si>
-    <t>1618 (0.064707)</t>
-  </si>
-  <si>
-    <t>308 (0.012318)</t>
-  </si>
-  <si>
-    <t>222 (0.008878)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>476 (0.019036)</t>
-  </si>
-  <si>
-    <t>223 (0.008918)</t>
-  </si>
-  <si>
-    <t>62 (0.002480)</t>
-  </si>
-  <si>
-    <t>124 (0.004959)</t>
-  </si>
-  <si>
-    <t>2 (0.000080)</t>
-  </si>
-  <si>
-    <t>157 (0.006279)</t>
-  </si>
-  <si>
-    <t>2513 (0.100500)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1805 (0.072186)</t>
-  </si>
-  <si>
-    <t>259 (0.010358)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1197 (0.047870)</t>
-  </si>
-  <si>
-    <t>296 (0.011838)</t>
-  </si>
-  <si>
-    <t>466 (0.018636)</t>
-  </si>
-  <si>
-    <t>142 (0.005679)</t>
-  </si>
-  <si>
-    <t>5047 (0.037828)</t>
-  </si>
-  <si>
-    <t>3 (0.000022)</t>
-  </si>
-  <si>
-    <t>23 (0.000172)</t>
-  </si>
-  <si>
-    <t>2631 (0.019720)</t>
-  </si>
-  <si>
-    <t>2419 (0.018131)</t>
-  </si>
-  <si>
-    <t>14 (0.000105)</t>
-  </si>
-  <si>
-    <t>37392 (0.280258)</t>
-  </si>
-  <si>
-    <t>1643 (0.012314)</t>
-  </si>
-  <si>
-    <t>20167 (0.151154)</t>
-  </si>
-  <si>
-    <t>649 (0.004864)</t>
-  </si>
-  <si>
-    <t>849 (0.006363)</t>
-  </si>
-  <si>
-    <t>108 (0.000809)</t>
-  </si>
-  <si>
-    <t>890 (0.006671)</t>
-  </si>
-  <si>
-    <t>33454 (0.250742)</t>
-  </si>
-  <si>
-    <t>19516 (0.146275)</t>
-  </si>
-  <si>
-    <t>2659 (0.019930)</t>
-  </si>
-  <si>
-    <t>2919 (0.021878)</t>
-  </si>
-  <si>
-    <t>2920 (0.021886)</t>
-  </si>
-  <si>
-    <t>117 (0.000877)</t>
-  </si>
-  <si>
-    <t>頻度(通常シナリオ)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>本来は最終的な目的地に近づく意図でしたが、想定外の事象が重なり、衝突という最終状態に達してしまいました。</t>
   </si>
   <si>
@@ -936,9 +391,6 @@
   </si>
   <si>
     <t>前のやり方を続けると衝突が起こりやすく目的地への道筋を確保できない恐れがあり、行動を切り替え暗い未来を避け望みを残したい強い思いがありました。</t>
-  </si>
-  <si>
-    <t>機械的＋感情的</t>
   </si>
   <si>
     <t>先ほどまでの展開への不安な気持ちが、その後の変化で安心と前向きな気持ちに変わりました。先行きへの心配が軽くなり、落ち着きを取り戻せました。</t>
@@ -2025,30 +1477,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>説明タイプ＼説明種類</t>
-  </si>
-  <si>
-    <t>目的論的</t>
-  </si>
-  <si>
-    <t>機械的</t>
-  </si>
-  <si>
-    <t>感情的</t>
-  </si>
-  <si>
-    <t>目的論的＋機械的</t>
-  </si>
-  <si>
-    <t>目的論的＋感情的</t>
-  </si>
-  <si>
-    <t>目的論的＋機械的＋感情的</t>
-  </si>
-  <si>
-    <t>事実的（前行動なし）</t>
-  </si>
-  <si>
     <t>次の段階として、速いペースで進む状態を目指すことで最終目的地に近づくために、加速を選びました。これにより、目的地に向けた一歩先の状態へ進むことができました。</t>
   </si>
   <si>
@@ -2070,9 +1498,6 @@
     <t>ゆっくり進む状態から加速を選び、速度を上げた状態へ移行して目的地への道筋が開けました。この変化により、心に前向きな期待と落ち着きを感じながら次の段階へ進みました。</t>
   </si>
   <si>
-    <t>反事実的（前行動=加速）</t>
-  </si>
-  <si>
     <t>最終目的地に近づくため、同じ行動で速いペースを目指しました。もし今別の行動を選ぶと状態が変わり目的地到達が遅れる可能性があったため、あえて同じ行動を続けることで一歩先へ進む狙いがありました。</t>
   </si>
   <si>
@@ -2082,9 +1507,6 @@
     <t>最終目的地へ一歩近づくため、同じ流れを保って進みました。もし別の手段に切り替えていたら、目的地到達が遠のき、心に混乱やもどかしさを抱えていたかもしれません。そこをあえて変えずに進んだことで、前向きな安堵感を保ちながら次の段階へ向かいました。</t>
   </si>
   <si>
-    <t>反事実的（前行動=減速）</t>
-  </si>
-  <si>
     <t>最終目的地に近づくため、これまでの減速から加速へ切り替えました。もし減速を続けると停止状態や歩行者がいる場面になり目的地到着が遠回りになるため、新しい行動を選び一歩先へ進む狙いがありました。</t>
   </si>
   <si>
@@ -2103,9 +1525,6 @@
     <t>ゆっくり進む状態から加速へ切り替え、速度を上げた状態へ進みました。減速を続けると停止状態で目的地が遠のくため、新しい行動を選び、前向きな期待を感じながら先へ進みました。</t>
   </si>
   <si>
-    <t>反事実的（前行動=車線変更）</t>
-  </si>
-  <si>
     <t>最終目的地に近づくため、車線変更から加速へ切り替えました。もし車線変更を続けると現状維持や予期せぬ状況に移行する可能性があり目的地までが不確実になるため、新しい行動で一歩先へ進みました。</t>
   </si>
   <si>
@@ -2122,9 +1541,6 @@
   </si>
   <si>
     <t>ゆっくり進む状態から加速を選び、速度を上げた状態へ進みました。車線変更では現状維持になりやすく目的地が不確実なため、新しい行動で前向きな期待を感じながら先へ進みました。</t>
-  </si>
-  <si>
-    <t>反事実的（前行動=何もしない）</t>
   </si>
   <si>
     <t>最終目的地へ向かうため、何もしない状態から加速へ切り替えました。もし何もしないままだと現状維持や予期せぬ状況になり目的地到達が遅れる可能性があったため、新しい行動で前進を目指しました。</t>
@@ -2258,6 +1674,533 @@
   <si>
     <t>null</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最終的な目的地に到達するためには、まず一時的に停止したままの状態を維持することが必要でした。そこで、あえて操作を加えずに進めることで、次の段階へ移るための流れを作りました。</t>
+  </si>
+  <si>
+    <t>先ほどは停止したまま歩行者が前方にいる状態でした。そのときは何も操作を行わず、その結果、多くの場合は同じ状態が続き、ときおり別の状態へ移る可能性がありましたが、衝突は起きませんでした。</t>
+  </si>
+  <si>
+    <t>はじめは大きな不安が募っていましたが、そのままの落ち着いた気持ちを保つことで、少しほっとする感覚が生まれました。最終的には大きな安心につながると期待していました。</t>
+  </si>
+  <si>
+    <t>先ほどは停止中で歩行者が前方にいる状況でした。多くの場合は同じ状態が続きましたが、最終的な目的地へ向かうために、停止を続けて次の段階への準備を整えることが必要でした。</t>
+  </si>
+  <si>
+    <t>先ほどは車が停止していて歩行者が前方にいる状況でした。多くの場合は同じ状態が続きましたが、はじめは気がかりな気分だったものの、穏やかな気持ちを保てそうだと感じ安堵しました。</t>
+  </si>
+  <si>
+    <t>最終目的地を目指すため、まずは停止を続けることが必要な状況でした。そのため変化を加えずに進めたところ、当初の不安が和らぎ、落ち着いた気持ちで見通しが立ちました。</t>
+  </si>
+  <si>
+    <t>先ほどは停止中で歩行者が前方にいる状況で、多くの場合は変化なく進みました。目的地に向けて一時的な停止が必要と判断し、気がかりな思いが落ち着きへと変わりました。</t>
+  </si>
+  <si>
+    <t>最終目的地へ進むため、前回の加速から操作を控える方法へ切り替えました。加速を続ければ衝突の可能性を含む経路となるため、この段階での行動変更が必要でした。</t>
+  </si>
+  <si>
+    <t>これまでの先を急ぐ気持ちを続ければ、強い不安や落ち着かなさが増していたかもしれません。そこで方向を変えることで、心に安堵が広がり穏やかになれました。</t>
+  </si>
+  <si>
+    <t>先ほどの操作変更で、まれな経路は避けられました。前回の加速継続では衝突につながる可能性があったため、最終目的地へ向かううえで、このタイミングでの行動変更が必要でした。</t>
+  </si>
+  <si>
+    <t>先ほどの操作で、まれな分岐は避けられ、胸がほっと軽くなる安堵を感じました。以前のように急ぐ方向を続けていれば、別の形で不安が大きくなっていたでしょう。</t>
+  </si>
+  <si>
+    <t>目的地を目指すため、前回の加速から新しい選択へ切り替えることにしました。以前の気持ちのまま進んでいれば予期せぬ事態の懸念がありましたが、今は安心感が広がっています。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を新たに選んだことで、まれな経路を避けることができました。前回の加速継続では衝突につながる可能性があるため、行動を切り替え、焦る気持ちから落ち着きを取り戻せました。</t>
+  </si>
+  <si>
+    <t>目的地へ向かうため、前回の減速から様子見の方法へ切り替えました。減速継続では同じ状態や衝突の可能性を含む経路となるため、この段階での行動変更が必要でした。</t>
+  </si>
+  <si>
+    <t>これまでの抑制的な考えを続ければ、不安が募り先行きが見えなくなる恐れがありました。そこで新しい心構えに変えることで、落ち着きを取り戻せました。</t>
+  </si>
+  <si>
+    <t>先ほど操作を加えずに様子を見たところ、状態は安定していました。前回の減速継続では停止状態や衝突の可能性もあったため、目的地へ向けて行動を切り替える必要がありました。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を控えめにし、大きな変化は起きませんでした。以前のように抑制的な流れを続ければ気持ちの重さが増したかもしれませんが、切り替えで安心感が広がりました。</t>
+  </si>
+  <si>
+    <t>目的地へ向かうため、焦る気持ちに任せた動きは避け、落ち着いた進め方を選びました。歩行者がいる中での慌ただしい行動は後の動揺を招く恐れがあったのです。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を控えめにして状態は安定していました。別の選択では衝突の可能性も含まれるため、目的地へ向けてこの落ち着いた状態を保つことにしました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を考え、前回の車線変更から新たな方針へ切り替えました。車線変更継続では同じ状態や衝突の可能性を含む経路となるため、この変更が必要でした。</t>
+  </si>
+  <si>
+    <t>これまでの流れを変える思いを続ければ、息苦しい不安が募っていたかもしれません。そこで新しい心構えに切り替えることで、落ち着きを取り戻せました。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を控えめにして状態は安定していました。前回の車線変更継続では同じ状況や衝突の可能性を含む経路となるため、目的地へ向けた行動変更が必要でした。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を控えめにし、状態は安定していました。以前の流れを続ければ落ち着きを失い不安が膨らむ恐れがありましたが、変更で心に余裕が生まれました。</t>
+  </si>
+  <si>
+    <t>目的地を目指すため、前の方向から変化を抑えた進め方へ切り替えました。以前の流れでは衝突の懸念から緊張が高まる恐れがありましたが、今は安堵を感じています。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を控えめにして状態は安定していました。前回の継続では衝突の可能性もあったため、目的地へ向けて落ち着いた進み方を選び、安心感が広がりました。</t>
+  </si>
+  <si>
+    <t>目的地への接近には、前回同様に操作を控えめにすることが有効でした。他の選択では歩行者がいる中での移動となり衝突の可能性があったため、継続が必要でした。</t>
+  </si>
+  <si>
+    <t>これまでの落ち着いた心持ちを保てば、余計な不安を避けられます。急ぐ気持ちに流されれば戸惑いが募っていたかもしれませんが、同じ姿勢で安心感が得られました。</t>
+  </si>
+  <si>
+    <t>先ほどは前回同様に操作を控えめにして、状態は安定していました。他の選択では歩行者がいる中での移動となり衝突の可能性があったため、継続が必要でした。</t>
+  </si>
+  <si>
+    <t>先ほどは前回同様に操作を加えずに様子を見たところ、大きな変化は起こらず衝突も避けられました。もし異なる選択をしていれば、予期せぬ不安や緊張が高まる可能性があったかもしれません。同じ落ち着いた気持ちを保ち続けることで、少しずつ安心感が得られました。</t>
+  </si>
+  <si>
+    <t>目的地へ向かううえで、前回と同じ慎重な姿勢を保つことが重要でした。別の気持ちでは予期せぬ事態への不安が大きくなるため、落ち着いた気持ちを続けました。</t>
+  </si>
+  <si>
+    <t>先ほどは前回同様に操作を控えめにして状態は安定していました。別の選択では歩行者がいる中での移動となるため、目的地へ向けてこの落ち着いた状態を保ちました。</t>
+  </si>
+  <si>
+    <t>頻度(衝突シナリオ) 全説明数21715752</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ゼンセツメイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3705876回 (0.1707)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>194149回 (0.0089)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>頻度(衝突シナリオ) 全説明数21715752</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>99975回 (0.0046)</t>
+  </si>
+  <si>
+    <t>1804711回 (0.0831)</t>
+  </si>
+  <si>
+    <t>308626回 (0.0142)</t>
+  </si>
+  <si>
+    <t>1201133回 (0.0553)</t>
+  </si>
+  <si>
+    <t>205844回 (0.0095)</t>
+  </si>
+  <si>
+    <t>111254回 (0.0051)</t>
+  </si>
+  <si>
+    <t>74308回 (0.0034)</t>
+  </si>
+  <si>
+    <t>3488131回 (0.1606)</t>
+  </si>
+  <si>
+    <t>509333回 (0.0235)</t>
+  </si>
+  <si>
+    <t>968208回 (0.0446)</t>
+  </si>
+  <si>
+    <t>118991回 (0.0055)</t>
+  </si>
+  <si>
+    <t>1356247回 (0.0625)</t>
+  </si>
+  <si>
+    <t>222670回 (0.0103)</t>
+  </si>
+  <si>
+    <t>216425回 (0.0100)</t>
+  </si>
+  <si>
+    <t>375525回 (0.0173)</t>
+  </si>
+  <si>
+    <t>52909回 (0.0024)</t>
+  </si>
+  <si>
+    <t>63169回 (0.0029)</t>
+  </si>
+  <si>
+    <t>91356回 (0.0042)</t>
+  </si>
+  <si>
+    <t>43375回 (0.0020)</t>
+  </si>
+  <si>
+    <t>144178回 (0.0066)</t>
+  </si>
+  <si>
+    <t>2570617回 (0.1184)</t>
+  </si>
+  <si>
+    <t>1713366回 (0.0789)</t>
+  </si>
+  <si>
+    <t>916726回 (0.0422)</t>
+  </si>
+  <si>
+    <t>218910回 (0.0101)</t>
+  </si>
+  <si>
+    <t>392728回 (0.0181)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>327863回 (0.0151)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>219149回 (0.0101)</t>
+  </si>
+  <si>
+    <t>頻度(通常シナリオ)全説明数26506578</t>
+    <rPh sb="10" eb="14">
+      <t>ゼンセツメイスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>989935回 (0.0373)</t>
+  </si>
+  <si>
+    <t>10065回 (0.0004)</t>
+  </si>
+  <si>
+    <t>25025回 (0.0009)</t>
+  </si>
+  <si>
+    <t>81回 (0.0000)</t>
+  </si>
+  <si>
+    <t>599793回 (0.0226)</t>
+  </si>
+  <si>
+    <t>395302回 (0.0149)</t>
+  </si>
+  <si>
+    <t>4905回 (0.0002)</t>
+  </si>
+  <si>
+    <t>7615回 (0.0003)</t>
+  </si>
+  <si>
+    <t>4989回 (0.0002)</t>
+  </si>
+  <si>
+    <t>48回 (0.0000)</t>
+  </si>
+  <si>
+    <t>7103993回 (0.2680)</t>
+  </si>
+  <si>
+    <t>379958回 (0.0143)</t>
+  </si>
+  <si>
+    <t>4227317回 (0.1595)</t>
+  </si>
+  <si>
+    <t>126580回 (0.0048)</t>
+  </si>
+  <si>
+    <t>197561回 (0.0075)</t>
+  </si>
+  <si>
+    <t>19803回 (0.0007)</t>
+  </si>
+  <si>
+    <t>106905回 (0.0040)</t>
+  </si>
+  <si>
+    <t>5209回 (0.0002)</t>
+  </si>
+  <si>
+    <t>6688325回 (0.2523)</t>
+  </si>
+  <si>
+    <t>4037253回 (0.1523)</t>
+  </si>
+  <si>
+    <t>423385回 (0.0160)</t>
+  </si>
+  <si>
+    <t>691857回 (0.0261)</t>
+  </si>
+  <si>
+    <t>425541回 (0.0161)</t>
+  </si>
+  <si>
+    <t>35133回 (0.0013)</t>
+  </si>
+  <si>
+    <t>最終目的地を目指す途中で、この段階ではいったん停止状態を維持することが必要と判断していました。操作を加えずに進むことで次の段階へ移るための流れを作ろうとしていましたが、予期せぬタイミングで衝突が発生してしまい、目的地への到達が妨げられる結果となりました。</t>
+  </si>
+  <si>
+    <t>先ほどは、停止したまま歩行者が前方にいる状態でした。そのとき、何も操作を行わないという選択をしましたが、まれに含まれていた衝突への経路が現実となってしまいました。通常は別の状態への移行や同じ状態の継続が多いにもかかわらず、今回は衝突が発生したのです。</t>
+  </si>
+  <si>
+    <t>はじめは大きな不安を感じながらも、落ち着いた気持ちを保とうとしていたところでした。しかし突然、すべてが暗転するような衝撃が走り、深い絶望と恐怖に包まれました。期待していた安心感は一瞬で打ち砕かれ、取り返しのつかない悲痛な思いが胸に広がりました。</t>
+  </si>
+  <si>
+    <t>先ほどは停止したまま歩行者が前方にいる状態で、多くの場合は大きな変化なく進むはずでした。次の段階へ向かううえで、一時的な停止状態の維持が必要と判断し操作を控えましたが、まれに存在する衝突への経路をたどることとなり、目的地への到達を大きく損なう結果となりました。</t>
+  </si>
+  <si>
+    <t>先ほどは停止したまま歩行者が前方にいる状態で、操作を行わない選択をしました。通常とは異なり、まれな経路が現実となって衝突が発生し、その瞬間、胸を締め付けられるような強い衝撃と混乱に襲われました。予期せぬ展開に心が震え、深い絶望感に包まれてしまいました。</t>
+  </si>
+  <si>
+    <t>最終目的地を目指すため、この段階では停止状態を維持して次へ進む準備をしていました。しかし突然の衝突により、すべての期待が崩れ去るような深い絶望を感じることになりました。目的地への希望が一瞬で消え失せ、やり場のない悲しみと後悔が押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>先ほどは停止したまま歩行者が前方にいる状態で、次の段階に向けた準備として操作を控えていました。しかし、まれに存在していた衝突への経路が現実となり、目的地への道筋が断たれてしまいました。その瞬間、すべてが暗転したような強い衝撃と共に、深い絶望感に打ちのめされました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を考え、前回の加速から操作を控える方法へ切り替えましたが、予期せぬ衝突が発生しました。前回の加速を続けていた場合にも衝突の可能性を含む経路がありましたが、目的地到達のための進行方法として変更したにもかかわらず、結果として避けることができませんでした。</t>
+  </si>
+  <si>
+    <t>これまでの先を急ぐ気持ちを和らげようと方向転換を試みましたが、突然の衝撃と共に底知れぬ絶望感に襲われました。焦りから解放されて安心を得られるはずでしたが、予期せぬ事態により、胸が張り裂けるような深い悲しみが押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>先ほどは操作を変更しましたが、まれに含まれていた衝突への経路をたどることになりました。前回の加速継続では同じく衝突の可能性がある経路でしたが、目的地到達のための進行方法として行動を切り替えたにもかかわらず、予期せぬ形で衝突が発生してしまいました。</t>
+  </si>
+  <si>
+    <t>操作を変更した際に、まれな衝突経路が現実となり、予期せぬ衝撃と共に深い絶望に包まれました。通常とは異なる展開となり、これまでの慎重な気持ちから切り替えたにもかかわらず、すべてが暗転したような強い悲しみと後悔に襲われました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を目指して前回の加速から方針を切り替えましたが、突如として衝突が発生し、底知れぬ絶望感に襲われました。より円滑な進行を期待していた矢先に、すべての希望が崩れ去り、取り返しのつかない強い後悔が胸に広がりました。</t>
+  </si>
+  <si>
+    <t>前回の加速から操作を変更しましたが、まれな衝突経路が現実となりました。目的地到達のための判断でしたが、予期せぬ展開により、胸が締め付けられるような強い衝撃を受けました。期待していた前進は深い絶望へと変わり、やり場のない悲しみが押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を考え、前回の減速から操作を控える方法へ切り替えましたが、予期せぬ衝突が発生しました。減速を続けていた場合でも同様の状態や衝突の可能性を含む経路でしたが、目的地到達のための進行方法として変更した結果、避けられない事態となりました。</t>
+  </si>
+  <si>
+    <t>これまでの慎重な気持ちを切り替えようとした矢先、突然の衝撃と共に深い絶望感に襲われました。抑制的な進み方から解放されて新たな安心を得られるはずでしたが、予期せぬ事態により、胸を引き裂かれるような強い後悔が押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>先ほどは前回の減速から操作を変更しましたが、まれに含まれていた衝突への経路をたどることになりました。減速継続でも同様の状態や衝突の可能性がある経路でしたが、目的地到達のための進行方法として行動を切り替えた結果、避けられない事態となりました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を目指して前回の減速から方針を切り替えましたが、突如として衝突が発生し、底知れぬ絶望感に襲われました。より円滑な進行を期待していた矢先に、すべての希望が崩れ去り、取り返しのつかない強い後悔が胸に広がりました。</t>
+  </si>
+  <si>
+    <t>前回の減速から操作を変更しましたが、まれな衝突経路が現実となりました。目的地到達のための判断でしたが、予期せぬ展開により、胸が締め付けられるような強い衝撃を受けました。期待していた前進は深い絶望へと変わり、悲痛な思いが押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を考え、前回の車線変更から操作を控える方法へ切り替えましたが、予期せぬ衝突が発生しました。車線変更を続けていた場合でも同様の状態や衝突の可能性を含む経路でしたが、目的地到達のための進行方法として変更した結果、避けられない事態となりました。</t>
+  </si>
+  <si>
+    <t>これまでの流れを変える思いから落ち着きを取り戻そうとした矢先、突然の衝撃と共に深い絶望感に襲われました。新たな安心を得られるはずでしたが、予期せぬ事態により、胸が張り裂けるような強い後悔と喪失感が押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>先ほどは前回の車線変更から操作を変更しましたが、まれに含まれていた衝突への経路をたどることになりました。車線変更継続でも同様の状態や衝突の可能性がある経路でしたが、目的地到達のための進行方法として行動を切り替えた結果、避けられない事態となりました。</t>
+  </si>
+  <si>
+    <t>操作を変更した際に、まれな衝突経路が現実となり、突然の衝撃と共に深い絶望に包まれました。通常とは異なる展開となり、これまでの方向を切り替えたにもかかわらず、すべてが暗転したような強い悲しみと取り返しのつかない後悔に襲われました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を目指して前回の車線変更から方針を切り替えましたが、突如として衝突が発生し、底知れぬ絶望感に襲われました。より確実な進行を期待していた矢先に、すべての希望が崩れ去り、深い悲痛な思いが胸に広がりました。</t>
+  </si>
+  <si>
+    <t>目的地への到達のため、前回と同様に操作を控える方法を継続しましたが、予期せぬ衝突が発生しました。他の選択肢に切り替えていれば異なる経路もありましたが、目的地到達のための進行方法として継続した結果、避けられない事態となってしまいました。</t>
+  </si>
+  <si>
+    <t>落ち着いた気持ちを保とうと同じ姿勢を続けましたが、突然の衝撃と共に深い絶望感に襲われました。他の選択への切り替えも考えられましたが、安定を求めて継続した矢先、すべてが暗転し、取り返しのつかない強い後悔が押し寄せてきました。</t>
+  </si>
+  <si>
+    <t>先ほどは前回と同様に操作を控える選択を継続しましたが、まれに含まれていた衝突への経路をたどることになりました。他の選択肢への切り替えという選択肢もありましたが、目的地到達のための進行方法として継続した結果、避けられない事態となりました。</t>
+  </si>
+  <si>
+    <t>前回と同じ操作を継続した際に、まれな衝突経路が現実となり、突然の衝撃と共に深い絶望に包まれました。通常とは異なる展開となり、これまでの落ち着いた進行を選んでいたにもかかわらず、すべてが暗転したような強い悲しみと後悔に襲われました。</t>
+  </si>
+  <si>
+    <t>目的地への到達を目指して前回と同じ方針を継続しましたが、突如として衝突が発生し、底知れぬ絶望感に襲われました。より確実な進行を期待して同じ選択を続けた矢先に、すべての希望が崩れ去り、深い悲痛な思いが胸に広がりました。</t>
+  </si>
+  <si>
+    <t>前回と同じ操作を継続しましたが、まれな衝突経路が現実となりました。目的地到達のための判断と考えていましたが、予期せぬ展開により、胸が締め付けられるような強い衝撃を受けました。期待していた進行は深い絶望へと変わりました。</t>
+  </si>
+  <si>
+    <t>前回と同じ操作を継続しましたが、まれな衝突経路が現実となりました。目的地到達のための最適な判断と考えていましたが、予期せぬ展開により、胸が締め付けられるような強い衝撃を受けました。期待していた進行は深い絶望へと変わりました。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>目的地に到達するためには、まず停止を抜けて低速に進む必要がございましたので、その中継点に到達するために加速を選びました。</t>
+  </si>
+  <si>
+    <t>停止していて前方に歩行者がいない状態で加速を選びましたところ、主に低速で前方に歩行者がいない状態へ移りました。</t>
+  </si>
+  <si>
+    <t>もともと停滞感がありましたが、今回の変化によって心が少し軽くなり、次の展開に期待を抱くような感覚が生まれました。</t>
+  </si>
+  <si>
+    <t>停止していて前方に歩行者がいない状態で加速を行い、主に低速へ移行しました。この変化により、目的地へ向かうための第一歩を確保できました。</t>
+  </si>
+  <si>
+    <t>停止していて前方に歩行者がいない状態で加速を行い、低速へ移行しました。この変化により、停滞から解放され、前向きな気持ちが芽生えました。</t>
+  </si>
+  <si>
+    <t>目的地到達への通過点として低速への移行が必要でした。足踏み状態のもどかしさから抜け出し、一歩前進による安堵と期待が生まれました。</t>
+  </si>
+  <si>
+    <t>停止から加速を行い、低速へ移行しました。これにより目的地への重要な一歩を確保でき、停滞感が軽減し、先への期待が高まりました。</t>
+  </si>
+  <si>
+    <t>加速の継続により前進の流れにあり、他の選択では停止状態が続き目的地到達が遅れる可能性がありました。そのため、引き続き加速を選択しました。</t>
+  </si>
+  <si>
+    <t>今の流れを保つことで安定した気持ちを維持できると感じ、方向転換による不安や落ち着かなさを避けることができました。</t>
+  </si>
+  <si>
+    <t>加速を選び低速へ移行しました。他の選択では停止状態が続く可能性が高く、目的地到達が遅れるため、加速継続が妥当でした。</t>
+  </si>
+  <si>
+    <t>加速を選択し低速へ進みました。方向転換により不安と落ち着かなさが生じる可能性を避け、同じ方向を維持することで安堵を感じました。</t>
+  </si>
+  <si>
+    <t>次の段階への道筋ができており、変更は機会損失と不安を招くと考えました。そのため、現状維持により前向きな気持ちを保てました。</t>
+  </si>
+  <si>
+    <t>加速を継続し低速へ移行しました。他の選択では停止が続く懸念があり、目的達成には既存の選択維持が適切と判断し、進展の手応えを得ました。</t>
+  </si>
+  <si>
+    <t>減速継続では停止状態が続くか歩行者出現の可能性があり、目的地への進行が妨げられるため、加速への切り替えを選択しました。</t>
+  </si>
+  <si>
+    <t>前の方針を続ければもどかしさや落ち着かない思いが増すと感じ、新たな流れに踏み出すことで前向きな気持ちが芽生えました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ移行しました。減速継続では停止が長引くか歩行者出現の可能性があり、目的地到達の妨げとなるため切り替えました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ進みました。このまま足止めされるもどかしさを感じていましたが、切り替えることで前向きな気持ちを取り戻せました。</t>
+  </si>
+  <si>
+    <t>現状継続では予期せぬ事態の可能性があり、切り替えにより前進への道を開き、停滞した気持ちから希望が湧きました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ移行しました。停止継続では進展が止まる可能性があったため、切り替えで足踏み状態から抜け出し、前進への期待を持てました。</t>
+  </si>
+  <si>
+    <t>車線変更継続では停止状態が続くか歩行者出現の可能性があり、加速への切り替えで目的地到達への流れを作ることにしました。</t>
+  </si>
+  <si>
+    <t>これまでの方針では踏み出せないままもどかしさが増し、閉塞感にとらわれる気がしました。新しい流れに転じ、前進への期待が生まれました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ移行しました。車線変更継続では停止が続くか衝突の可能性があり、目的地到達のため切り替えを選択しました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ移行しました。従来の方針では停滞感に苛まれ前へ進めない焦りがあり、切り替えで前進への安堵を感じました。</t>
+  </si>
+  <si>
+    <t>車線変更継続では進展が遅れる懸念があり、新たな方向へ転じることで目的地への道を確保し、滞りから解放される落ち着きを得ました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ移行しました。車線変更継続では停滞や新たな障害の可能性があり、切り替えで前進の道を開き、閉塞感から解放される安心を得ました。</t>
+  </si>
+  <si>
+    <t>無行動継続では停止状態が続くか歩行者出現の可能性があり、目的地到達が遅れるため、加速への切り替えで次の段階へ進みました。</t>
+  </si>
+  <si>
+    <t>もし同じやり方を保っていたら息苦しさや焦りが募っていくように感じておりました。そこで思い切って別の流れに変えたところ、先へ進む安堵を覚えました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ移行しました。無行動継続では停止が続くか新たな障害が生じる可能性があり、目的地到達のため切り替えました。</t>
+  </si>
+  <si>
+    <t>加速により低速へ進みました。無行動継続では息苦しい停滞感が広がる懸念があり、切り替えにより前向きな気持ちを取り戻せました。</t>
+  </si>
+  <si>
+    <t>無行動継続では進展機会が限られ予期せぬ事態の可能性もあり、切り替えにより前進への希望が生まれ、焦りから解放されました。</t>
+  </si>
+  <si>
+    <t>加速で低速へ移行しました。無行動継続では停滞や新たな障害の可能性があり、切り替えにより前進の道を開き、息苦しさから安堵を得ました。</t>
+  </si>
+  <si>
+    <t>もともと前向きな期待を抱いていたところに、突然の大きな悲劇が襲い、深い絶望と混乱を覚えました。</t>
+  </si>
+  <si>
+    <t>従来の方針から新たな展開を選んだものの、突然の大きな悲劇に見舞われ、深い絶望と混乱に包まれました。</t>
+  </si>
+  <si>
+    <t>現状からの変化を選んだ結果、突然の大きな悲劇に見舞われ、深い絶望と混乱に襲われました。</t>
+  </si>
+  <si>
+    <t>停止した状態から加速を選び、次の段階への移行を目指す中で衝突が起こってしまい、目的に向かう計画が途中で途切れました。その衝突によって胸に深い痛みが生まれ、当初の期待が一気に消えてしまったように感じました。</t>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なった結果、衝突に至りました。もともと何もしない方法を続けていれば、停止したまま長引いたり、歩行者が現れる状況に入りやすく、別の衝突を招くおそれがあると考え、新たな行動へ切り替えたのです。</t>
+  </si>
+  <si>
+    <t>前方に歩行者がいない状態で加速を行なったところ、まれに起こりうる衝突が実際に発生いたしました。一方で、何もしないままでは行き詰まったような停滞感が募ってしまうと感じていましたが、結果的にはさらに大きな衝撃を被ることとなり、胸の内に深い嘆きが広がりました。</t>
+  </si>
+  <si>
+    <t>もし前回と同じ方針を続けていれば、そのまま前へ進む道筋が開けず、ときに思わぬ衝突へつながる危険性もありました。そこで新しい方法に切り替えて先へ進もうとしましたが、思いがけない惨事が起き、言葉を失うほどの絶望と混乱に襲われました。</t>
+  </si>
+  <si>
+    <t>目的地に到達するためには、まず停止を抜けて低速に進む必要がございましたので、その中継点に到達するために加速を選びましたが、結果的には衝突に至りました。</t>
+  </si>
+  <si>
+    <t>停止していて前方に歩行者がいない状態で加速を行ない、まれに生じる衝突が今回実際に起きてしまいました。</t>
+  </si>
+  <si>
+    <t>停止した状態で加速を選び、次の段階を目指そうといたしましたが、まれに起こりうる衝突が今回実際に発生し、目的地到達へ向けた一連の流れがそこで途切れてしまいました。</t>
+  </si>
+  <si>
+    <t>停止の状態から加速を行なったところ、まれに起こりうる衝突が実際に発生いたしました。そして、その予想外の出来事によって、大きな衝撃と混乱が心に広がったように感じました。</t>
+  </si>
+  <si>
+    <t>目的地へ向かうための必須ステップとして加速を選びましたが、意図せず衝突に至ったことで、期待が一瞬にして崩れ去り、大きな喪失感と動揺を抱きました。</t>
+  </si>
+  <si>
+    <t>加速を継続することで目的地到達への進展を図っていました。他の選択では停止状態が続き進捗が得られない可能性が高いと考え、加速維持が妥当と判断しましたが、衝突という結果となりました。</t>
+  </si>
+  <si>
+    <t>これまでの方針を保っていたら、先が見えない混乱やもどかしさに陥るかもしれないと考えたからです。しかしながら、思いもしなかった惨劇に見舞われ、胸に深い痛みと動揺が広がりました。</t>
+  </si>
+  <si>
+    <t>加速を継続して進みましたが衝突が発生しました。他の選択では停止状態が続く可能性があり加速維持を選びましたが、予期せぬ悲劇により深い絶望と混乱に包まれました。</t>
+  </si>
+  <si>
+    <t>減速継続では停止状態が続き目的地への進展が得られない可能性が高いと考えました。そのため加速への切り替えが必要と判断しましたが、衝突という結果となりました。</t>
+  </si>
+  <si>
+    <t>加速への切り替えで前進を目指しましたが衝突が発生しました。減速継続では停滞が続く懸念があり行動を変更しましたが、突然の悲劇により深い痛みと混乱が広がりました。</t>
+  </si>
+  <si>
+    <t>車線変更継続では停止状態が続き目的地への進展が遅れる可能性が高いと考えました。そのため加速への切り替えが必要と判断しましたが、衝突という結果となりました。</t>
+  </si>
+  <si>
+    <t>加速への切り替えで前進を図りましたが衝突が発生しました。車線変更継続では進展が遅れる懸念があり行動を変更しましたが、予期せぬ悲劇により深い絶望と混乱が押し寄せました。</t>
+  </si>
+  <si>
+    <t>何もしない状態を続けると停止状態が維持され目的地への進展が得られない可能性が高いと考えました。そのため加速への切り替えが必要と判断しましたが、衝突という結果となりました。</t>
+  </si>
+  <si>
+    <t>加速への切り替えで前進を目指しましたが衝突が発生しました。無行動継続では停滞が続く懸念があり行動を変更しましたが、突然の悲劇により深い痛みと混乱が広がりました。</t>
   </si>
 </sst>
 </file>
@@ -2858,7 +2801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2867,9 +2810,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3246,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC851-A1BD-4B16-87C1-C6B05768817B}">
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="61" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -3265,10 +3205,10 @@
   <sheetData>
     <row r="1" spans="1:25" ht="79.5" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3286,13 +3226,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>443</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -3316,36 +3256,36 @@
         <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>147</v>
+        <v>446</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -3360,69 +3300,69 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>168</v>
+        <v>444</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>197</v>
+        <v>475</v>
       </c>
       <c r="J2" s="1">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>22</v>
+      <c r="K2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>56</v>
+        <v>445</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -3439,55 +3379,55 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>62</v>
+      <c r="K3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -3502,57 +3442,57 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -3567,57 +3507,57 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>74</v>
+      <c r="K5" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -3632,60 +3572,60 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>80</v>
+        <v>476</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -3694,72 +3634,72 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>199</v>
+        <v>477</v>
       </c>
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>119</v>
+      <c r="K7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -3768,63 +3708,64 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>125</v>
+      <c r="K8" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -3833,63 +3774,64 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>131</v>
+        <v>16</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -3898,63 +3840,64 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -3963,69 +3906,73 @@
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>143</v>
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -4034,75 +3981,75 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="J12" s="1">
         <v>7</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>534</v>
+        <v>350</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>536</v>
+        <v>352</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>537</v>
+        <v>353</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>538</v>
+        <v>354</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>539</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>540</v>
+        <v>356</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>569</v>
+        <v>381</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>570</v>
+        <v>382</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>571</v>
+        <v>383</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>572</v>
+        <v>384</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>573</v>
+        <v>385</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>574</v>
+        <v>386</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>575</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -4114,69 +4061,69 @@
         <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>173</v>
+        <v>450</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>201</v>
+        <v>480</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>542</v>
+        <v>357</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>543</v>
+        <v>358</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>568</v>
+        <v>380</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>567</v>
+        <v>379</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>544</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>566</v>
+        <v>378</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>174</v>
+        <v>451</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>576</v>
+        <v>388</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>570</v>
+        <v>382</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>577</v>
+        <v>389</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>578</v>
+        <v>390</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>579</v>
+        <v>391</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>580</v>
+        <v>392</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>581</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -4185,63 +4132,63 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>546</v>
+        <v>360</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>547</v>
+        <v>361</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>548</v>
+        <v>362</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>549</v>
+        <v>363</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>550</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>551</v>
+        <v>365</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>582</v>
+        <v>394</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>570</v>
+        <v>382</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>583</v>
+        <v>395</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>584</v>
+        <v>396</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>585</v>
+        <v>397</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>586</v>
+        <v>398</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>587</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -4250,63 +4197,66 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>553</v>
+        <v>366</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>554</v>
+        <v>367</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>555</v>
+        <v>368</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>556</v>
+        <v>369</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>557</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>558</v>
+        <v>371</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>588</v>
+        <v>400</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>570</v>
+        <v>382</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>589</v>
+        <v>401</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>585</v>
+        <v>397</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>591</v>
+        <v>403</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>592</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -4315,400 +4265,406 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>560</v>
+        <v>372</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>535</v>
+        <v>351</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>561</v>
+        <v>373</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>562</v>
+        <v>374</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>563</v>
+        <v>375</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>564</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>565</v>
+        <v>377</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>593</v>
+        <v>405</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>570</v>
+        <v>382</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>594</v>
+        <v>406</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>595</v>
+        <v>407</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>596</v>
+        <v>408</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>597</v>
+        <v>409</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>598</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="J17" s="1">
         <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>331</v>
+        <v>155</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>175</v>
+        <v>452</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>342</v>
+        <v>166</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>373</v>
+        <v>197</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>374</v>
+        <v>198</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>376</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>483</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>334</v>
+        <v>158</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>345</v>
+        <v>169</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>377</v>
+        <v>201</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>336</v>
+        <v>160</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>337</v>
+        <v>161</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>363</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>348</v>
+        <v>172</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>381</v>
+        <v>205</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>382</v>
+        <v>206</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>384</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>338</v>
+        <v>162</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>366</v>
+        <v>190</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>368</v>
+        <v>192</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>385</v>
+        <v>209</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>386</v>
+        <v>210</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>387</v>
+        <v>211</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>341</v>
+        <v>165</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>370</v>
+        <v>194</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>372</v>
+        <v>196</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>389</v>
+        <v>213</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>390</v>
+        <v>214</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>391</v>
+        <v>215</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>392</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -4717,75 +4673,75 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>177</v>
+        <v>454</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>203</v>
+        <v>485</v>
       </c>
       <c r="J22" s="1">
         <v>6</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>408</v>
+        <v>232</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>448</v>
+        <v>272</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>447</v>
+        <v>271</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>410</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>446</v>
+        <v>270</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>178</v>
+        <v>455</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>393</v>
+        <v>217</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>451</v>
+        <v>275</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>450</v>
+        <v>274</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>395</v>
+        <v>219</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>449</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
@@ -4797,69 +4753,69 @@
         <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>179</v>
+        <v>456</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>411</v>
+        <v>235</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>412</v>
+        <v>236</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>444</v>
+        <v>268</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>413</v>
+        <v>237</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>445</v>
+        <v>269</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>180</v>
+        <v>457</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>396</v>
+        <v>220</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>453</v>
+        <v>277</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>454</v>
+        <v>278</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>398</v>
+        <v>222</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>455</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -4868,72 +4824,72 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>181</v>
+        <v>458</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>205</v>
+        <v>487</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>414</v>
+        <v>238</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>415</v>
+        <v>239</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>442</v>
+        <v>266</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>441</v>
+        <v>265</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>182</v>
+        <v>459</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>399</v>
+        <v>223</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>458</v>
+        <v>282</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>457</v>
+        <v>281</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>401</v>
+        <v>225</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>456</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
@@ -4942,66 +4898,66 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>206</v>
+        <v>488</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>417</v>
+        <v>241</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>418</v>
+        <v>242</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>438</v>
+        <v>262</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>439</v>
+        <v>263</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>403</v>
+        <v>227</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>459</v>
+        <v>283</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -5010,1157 +4966,1128 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>421</v>
+        <v>245</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>435</v>
+        <v>259</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>434</v>
+        <v>258</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>433</v>
+        <v>257</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>405</v>
+        <v>229</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>452</v>
+        <v>276</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>406</v>
+        <v>230</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>464</v>
+        <v>288</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>463</v>
+        <v>287</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>407</v>
+        <v>231</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>462</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>183</v>
+        <v>460</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>207</v>
+        <v>489</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>281</v>
+        <v>105</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>184</v>
+        <v>461</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>305</v>
+        <v>129</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>308</v>
+        <v>132</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>309</v>
+        <v>133</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>185</v>
+        <v>462</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>430</v>
+        <v>254</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>186</v>
+        <v>463</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>312</v>
+        <v>136</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>314</v>
+        <v>138</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>187</v>
+        <v>464</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>209</v>
+        <v>491</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>429</v>
+        <v>253</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>291</v>
+        <v>115</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>292</v>
+        <v>116</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>188</v>
+        <v>465</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>318</v>
+        <v>142</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>297</v>
+        <v>121</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>189</v>
+        <v>466</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>322</v>
+        <v>146</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>523</v>
+        <v>347</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>427</v>
+        <v>251</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>428</v>
+        <v>252</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>328</v>
+        <v>152</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>190</v>
+        <v>467</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>210</v>
+        <v>493</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>426</v>
+        <v>250</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>423</v>
+        <v>247</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>516</v>
+        <v>340</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>518</v>
+        <v>342</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>465</v>
+        <v>289</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>467</v>
+        <v>291</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>468</v>
+        <v>292</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>469</v>
+        <v>293</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>470</v>
+        <v>294</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>471</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>191</v>
+        <v>468</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>211</v>
+        <v>494</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>515</v>
+        <v>339</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>513</v>
+        <v>337</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>512</v>
+        <v>336</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>520</v>
+        <v>344</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>519</v>
+        <v>343</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>477</v>
+        <v>301</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>475</v>
+        <v>299</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>474</v>
+        <v>298</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>473</v>
+        <v>297</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>509</v>
+        <v>333</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>510</v>
+        <v>334</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>511</v>
+        <v>335</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>521</v>
+        <v>345</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>522</v>
+        <v>346</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>478</v>
+        <v>302</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>479</v>
+        <v>303</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>482</v>
+        <v>306</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>483</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>212</v>
+        <v>495</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>507</v>
+        <v>331</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>506</v>
+        <v>330</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>505</v>
+        <v>329</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>504</v>
+        <v>328</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>503</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>502</v>
+        <v>326</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>489</v>
+        <v>313</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>488</v>
+        <v>312</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>487</v>
+        <v>311</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>486</v>
+        <v>310</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>484</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>496</v>
+        <v>320</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>497</v>
+        <v>321</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>498</v>
+        <v>322</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>499</v>
+        <v>323</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>500</v>
+        <v>324</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>501</v>
+        <v>325</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>490</v>
+        <v>314</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>491</v>
+        <v>315</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>492</v>
+        <v>316</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>493</v>
+        <v>317</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>494</v>
+        <v>318</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>495</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>213</v>
+        <v>496</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>193</v>
+        <v>469</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>214</v>
+        <v>497</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>257</v>
+        <v>82</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>195</v>
+        <v>471</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>264</v>
+        <v>89</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>196</v>
+        <v>473</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="114" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>525</v>
+        <v>349</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="U41" s="1" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="88.5" x14ac:dyDescent="0.85">
-      <c r="D46" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>532</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.85">
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.85">
       <c r="B47"/>
       <c r="C47"/>
-      <c r="D47" t="s">
-        <v>533</v>
-      </c>
-      <c r="E47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F47" t="s">
-        <v>570</v>
-      </c>
-      <c r="G47" t="s">
-        <v>571</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="K47" t="s">
-        <v>575</v>
-      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -6172,30 +6099,14 @@
     <row r="48" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B48"/>
       <c r="C48"/>
-      <c r="D48" t="s">
-        <v>541</v>
-      </c>
-      <c r="E48" t="s">
-        <v>576</v>
-      </c>
-      <c r="F48" t="s">
-        <v>570</v>
-      </c>
-      <c r="G48" t="s">
-        <v>577</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="K48" t="s">
-        <v>581</v>
-      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48"/>
@@ -6207,30 +6118,14 @@
     <row r="49" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B49"/>
       <c r="C49"/>
-      <c r="D49" t="s">
-        <v>545</v>
-      </c>
-      <c r="E49" t="s">
-        <v>582</v>
-      </c>
-      <c r="F49" t="s">
-        <v>570</v>
-      </c>
-      <c r="G49" t="s">
-        <v>583</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="K49" t="s">
-        <v>587</v>
-      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -6239,33 +6134,17 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="2:18" ht="409.5" x14ac:dyDescent="0.85">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B50"/>
       <c r="C50"/>
-      <c r="D50" t="s">
-        <v>552</v>
-      </c>
-      <c r="E50" t="s">
-        <v>588</v>
-      </c>
-      <c r="F50" t="s">
-        <v>570</v>
-      </c>
-      <c r="G50" t="s">
-        <v>589</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>592</v>
-      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50"/>
@@ -6274,33 +6153,17 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="2:18" ht="409.5" x14ac:dyDescent="0.85">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B51"/>
       <c r="C51"/>
-      <c r="D51" t="s">
-        <v>559</v>
-      </c>
-      <c r="E51" t="s">
-        <v>593</v>
-      </c>
-      <c r="F51" t="s">
-        <v>570</v>
-      </c>
-      <c r="G51" t="s">
-        <v>594</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>598</v>
-      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51"/>
@@ -6310,7 +6173,14 @@
       <c r="R51"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.85">
-      <c r="K52" s="2"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52"/>
@@ -6320,7 +6190,14 @@
       <c r="R52"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.85">
-      <c r="K53" s="2"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53"/>
@@ -6330,6 +6207,12 @@
       <c r="R53"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6340,6 +6223,12 @@
       <c r="R54"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6350,6 +6239,12 @@
       <c r="R55"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6366,6 +6261,8 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6382,6 +6279,8 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B59"/>
@@ -6390,6 +6289,8 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B60"/>
@@ -6398,6 +6299,8 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B61"/>
@@ -6406,6 +6309,8 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
@@ -6416,6 +6321,12 @@
       <c r="R61"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -6426,6 +6337,12 @@
       <c r="R62"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
@@ -6436,6 +6353,12 @@
       <c r="R63"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
@@ -6446,6 +6369,12 @@
       <c r="R64"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
@@ -6456,6 +6385,12 @@
       <c r="R65"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
@@ -6472,6 +6407,8 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
@@ -6488,6 +6425,8 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
@@ -6504,6 +6443,8 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
@@ -6520,6 +6461,8 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
@@ -6536,6 +6479,8 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
@@ -6546,6 +6491,12 @@
       <c r="R71"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
@@ -6555,6 +6506,38 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B77"/>
       <c r="C77"/>
@@ -6562,6 +6545,8 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B78"/>
@@ -6570,6 +6555,8 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B79"/>
@@ -6578,6 +6565,8 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.85">
       <c r="B80"/>
@@ -6586,22 +6575,164 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.85">
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.85">
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.85">
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.85">
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.85">
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.85">
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
